--- a/CEDCD_TestCase.xlsx
+++ b/CEDCD_TestCase.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheny39/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheny39/Documents/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2224CB6-E459-D34D-84A4-3A45EAA1B1D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FEC01-0268-C441-982A-C61902A02211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="520" windowWidth="29860" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="4740" windowWidth="29860" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="511">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -1815,6 +1814,12 @@
   </si>
   <si>
     <t>search get nothing</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -2981,44 +2986,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3048,36 +3083,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3367,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3383,26 +3388,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="130"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3430,13 +3435,13 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="114">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="114" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="96" t="s">
@@ -3451,7 +3456,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="115"/>
       <c r="C5" s="115"/>
       <c r="D5" s="96" t="s">
@@ -3466,7 +3471,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="115"/>
       <c r="C6" s="115"/>
       <c r="D6" s="96" t="s">
@@ -3484,7 +3489,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="115"/>
       <c r="C7" s="115"/>
       <c r="D7" s="96" t="s">
@@ -3501,9 +3506,9 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="96" t="s">
         <v>330</v>
       </c>
@@ -3518,11 +3523,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="114">
+      <c r="A9" s="121"/>
+      <c r="B9" s="117">
         <v>1.2</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="117" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="97" t="s">
@@ -3541,7 +3546,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="115"/>
       <c r="C10" s="115"/>
       <c r="D10" s="97" t="s">
@@ -3560,7 +3565,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="97" t="s">
@@ -3579,7 +3584,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="112"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="115"/>
       <c r="C12" s="115"/>
       <c r="D12" s="97" t="s">
@@ -3598,7 +3603,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="115"/>
       <c r="C13" s="115"/>
       <c r="D13" s="97" t="s">
@@ -3617,7 +3622,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="115"/>
       <c r="C14" s="115"/>
       <c r="D14" s="97" t="s">
@@ -3636,7 +3641,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="115"/>
       <c r="C15" s="115"/>
       <c r="D15" s="97" t="s">
@@ -3653,7 +3658,7 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="D16" s="97" t="s">
@@ -3666,7 +3671,7 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="115">
         <v>1.3</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="112"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="D18" s="97" t="s">
@@ -3702,7 +3707,7 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="112"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
       <c r="D19" s="97" t="s">
@@ -3719,7 +3724,7 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="115"/>
       <c r="C20" s="115"/>
       <c r="D20" s="97" t="s">
@@ -3736,7 +3741,7 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="115"/>
       <c r="C21" s="115"/>
       <c r="D21" s="97" t="s">
@@ -3753,7 +3758,7 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="115"/>
       <c r="C22" s="115"/>
       <c r="D22" s="97" t="s">
@@ -3770,7 +3775,7 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="115"/>
       <c r="C23" s="115"/>
       <c r="D23" s="97" t="s">
@@ -3787,7 +3792,7 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="115"/>
       <c r="C24" s="115"/>
       <c r="D24" s="97" t="s">
@@ -3804,7 +3809,7 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="115"/>
       <c r="C25" s="115"/>
       <c r="D25" s="97" t="s">
@@ -3821,7 +3826,7 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="115"/>
       <c r="C26" s="115"/>
       <c r="D26" s="97" t="s">
@@ -3838,7 +3843,7 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="115"/>
       <c r="C27" s="115"/>
       <c r="D27" s="97" t="s">
@@ -3855,7 +3860,7 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="115"/>
       <c r="C28" s="115"/>
       <c r="D28" s="97" t="s">
@@ -3872,7 +3877,7 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="115"/>
       <c r="C29" s="115"/>
       <c r="D29" s="97" t="s">
@@ -3889,7 +3894,7 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="115"/>
       <c r="C30" s="115"/>
       <c r="D30" s="97" t="s">
@@ -3906,11 +3911,11 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="112"/>
-      <c r="B31" s="114">
+      <c r="A31" s="121"/>
+      <c r="B31" s="117">
         <v>1.4</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="117" t="s">
         <v>263</v>
       </c>
       <c r="D31" s="99" t="s">
@@ -3926,7 +3931,7 @@
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="112"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="115"/>
       <c r="C32" s="115"/>
       <c r="D32" s="99" t="s">
@@ -3940,7 +3945,7 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="112"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="115"/>
       <c r="C33" s="115"/>
       <c r="D33" s="99" t="s">
@@ -3956,7 +3961,7 @@
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="112"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
       <c r="D34" s="99" t="s">
@@ -3972,7 +3977,7 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="112"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="115"/>
       <c r="C35" s="115"/>
       <c r="D35" s="99" t="s">
@@ -3988,7 +3993,7 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="112"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="115"/>
       <c r="C36" s="115"/>
       <c r="D36" s="99" t="s">
@@ -4004,7 +4009,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="112"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
       <c r="D37" s="99" t="s">
@@ -4020,7 +4025,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="112"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
       <c r="D38" s="99" t="s">
@@ -4036,7 +4041,7 @@
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="112"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
       <c r="D39" s="99" t="s">
@@ -4050,7 +4055,7 @@
       <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="112"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
       <c r="D40" s="99" t="s">
@@ -4066,7 +4071,7 @@
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="115"/>
       <c r="C41" s="115"/>
       <c r="D41" s="99" t="s">
@@ -4082,7 +4087,7 @@
       <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="112"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
       <c r="D42" s="99" t="s">
@@ -4098,7 +4103,7 @@
       <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="112"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="99" t="s">
@@ -4114,7 +4119,7 @@
       <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="112"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="115"/>
       <c r="C44" s="115"/>
       <c r="D44" s="99" t="s">
@@ -4130,7 +4135,7 @@
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="112"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="115"/>
       <c r="C45" s="115"/>
       <c r="D45" s="99" t="s">
@@ -4146,9 +4151,9 @@
       <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="112"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="99" t="s">
         <v>368</v>
       </c>
@@ -4162,7 +4167,7 @@
       <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="112"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="115">
         <v>1.5</v>
       </c>
@@ -4182,7 +4187,7 @@
       <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="112"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="115"/>
       <c r="C48" s="115"/>
       <c r="D48" s="97" t="s">
@@ -4198,7 +4203,7 @@
       <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="112"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="115"/>
       <c r="C49" s="115"/>
       <c r="D49" s="97" t="s">
@@ -4214,7 +4219,7 @@
       <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="112"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="115"/>
       <c r="C50" s="115"/>
       <c r="D50" s="97" t="s">
@@ -4230,7 +4235,7 @@
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="112"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="115"/>
       <c r="C51" s="115"/>
       <c r="D51" s="97" t="s">
@@ -4246,9 +4251,9 @@
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="97" t="s">
         <v>374</v>
       </c>
@@ -4258,13 +4263,13 @@
       <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="114">
         <v>2.1</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="114" t="s">
         <v>104</v>
       </c>
       <c r="D53" s="96" t="s">
@@ -4277,10 +4282,12 @@
       <c r="G53" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="19" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="115"/>
       <c r="C54" s="115"/>
       <c r="D54" s="97" t="s">
@@ -4296,7 +4303,7 @@
       <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="112"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="115"/>
       <c r="C55" s="115"/>
       <c r="D55" s="96" t="s">
@@ -4312,7 +4319,7 @@
       <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="115"/>
       <c r="C56" s="115"/>
       <c r="D56" s="97" t="s">
@@ -4328,7 +4335,7 @@
       <c r="H56" s="19"/>
     </row>
     <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="112"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="115"/>
       <c r="C57" s="115"/>
       <c r="D57" s="96" t="s">
@@ -4344,7 +4351,7 @@
       <c r="H57" s="19"/>
     </row>
     <row r="58" spans="1:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="115"/>
       <c r="C58" s="115"/>
       <c r="D58" s="97" t="s">
@@ -4360,7 +4367,7 @@
       <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="112"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="115"/>
       <c r="C59" s="115"/>
       <c r="D59" s="96" t="s">
@@ -4376,7 +4383,7 @@
       <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="115"/>
       <c r="C60" s="115"/>
       <c r="D60" s="97" t="s">
@@ -4390,7 +4397,7 @@
       <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="112"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="115"/>
       <c r="C61" s="115"/>
       <c r="D61" s="96" t="s">
@@ -4406,7 +4413,7 @@
       <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
+      <c r="A62" s="121"/>
       <c r="B62" s="115"/>
       <c r="C62" s="115"/>
       <c r="D62" s="97" t="s">
@@ -4420,7 +4427,7 @@
       <c r="H62" s="19"/>
     </row>
     <row r="63" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="112"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="115"/>
       <c r="C63" s="115"/>
       <c r="D63" s="96" t="s">
@@ -4436,7 +4443,7 @@
       <c r="H63" s="19"/>
     </row>
     <row r="64" spans="1:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="112"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="115"/>
       <c r="C64" s="115"/>
       <c r="D64" s="97" t="s">
@@ -4452,7 +4459,7 @@
       <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="112"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="115"/>
       <c r="C65" s="115"/>
       <c r="D65" s="96" t="s">
@@ -4468,7 +4475,7 @@
       <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="115"/>
       <c r="C66" s="115"/>
       <c r="D66" s="97" t="s">
@@ -4484,7 +4491,7 @@
       <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="112"/>
+      <c r="A67" s="121"/>
       <c r="B67" s="115"/>
       <c r="C67" s="115"/>
       <c r="D67" s="96" t="s">
@@ -4500,7 +4507,7 @@
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="112"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="115"/>
       <c r="C68" s="115"/>
       <c r="D68" s="97" t="s">
@@ -4514,9 +4521,9 @@
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="112"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="118"/>
       <c r="D69" s="97" t="s">
         <v>391</v>
       </c>
@@ -4530,7 +4537,7 @@
       <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="112"/>
+      <c r="A70" s="121"/>
       <c r="B70" s="115">
         <v>2.2000000000000002</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="112"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="115"/>
       <c r="C71" s="115"/>
       <c r="D71" s="97" t="s">
@@ -4566,7 +4573,7 @@
       <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="112"/>
+      <c r="A72" s="121"/>
       <c r="B72" s="115"/>
       <c r="C72" s="115"/>
       <c r="D72" s="97" t="s">
@@ -4582,7 +4589,7 @@
       <c r="H72" s="19"/>
     </row>
     <row r="73" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="112"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="115"/>
       <c r="C73" s="115"/>
       <c r="D73" s="97" t="s">
@@ -4598,9 +4605,9 @@
       <c r="H73" s="19"/>
     </row>
     <row r="74" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="112"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
       <c r="D74" s="97" t="s">
         <v>396</v>
       </c>
@@ -4614,11 +4621,11 @@
       <c r="H74" s="19"/>
     </row>
     <row r="75" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="112"/>
-      <c r="B75" s="114">
+      <c r="A75" s="121"/>
+      <c r="B75" s="117">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C75" s="137" t="s">
+      <c r="C75" s="123" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="42" t="s">
@@ -4632,9 +4639,9 @@
       <c r="H75" s="55"/>
     </row>
     <row r="76" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="112"/>
+      <c r="A76" s="121"/>
       <c r="B76" s="115"/>
-      <c r="C76" s="132"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="51" t="s">
         <v>398</v>
       </c>
@@ -4648,9 +4655,9 @@
       <c r="H76" s="19"/>
     </row>
     <row r="77" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="112"/>
+      <c r="A77" s="121"/>
       <c r="B77" s="115"/>
-      <c r="C77" s="132"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="51" t="s">
         <v>399</v>
       </c>
@@ -4664,9 +4671,9 @@
       <c r="H77" s="19"/>
     </row>
     <row r="78" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="112"/>
+      <c r="A78" s="121"/>
       <c r="B78" s="115"/>
-      <c r="C78" s="132"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="51" t="s">
         <v>400</v>
       </c>
@@ -4678,9 +4685,9 @@
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="112"/>
+      <c r="A79" s="121"/>
       <c r="B79" s="115"/>
-      <c r="C79" s="132"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="51" t="s">
         <v>401</v>
       </c>
@@ -4694,9 +4701,9 @@
       <c r="H79" s="19"/>
     </row>
     <row r="80" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="112"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="115"/>
-      <c r="C80" s="132"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="51" t="s">
         <v>402</v>
       </c>
@@ -4710,9 +4717,9 @@
       <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="112"/>
+      <c r="A81" s="121"/>
       <c r="B81" s="115"/>
-      <c r="C81" s="132"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="51" t="s">
         <v>403</v>
       </c>
@@ -4726,9 +4733,9 @@
       <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8" ht="193.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="112"/>
+      <c r="A82" s="121"/>
       <c r="B82" s="115"/>
-      <c r="C82" s="132"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="51" t="s">
         <v>404</v>
       </c>
@@ -4742,9 +4749,9 @@
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="112"/>
+      <c r="A83" s="121"/>
       <c r="B83" s="115"/>
-      <c r="C83" s="132"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="51" t="s">
         <v>405</v>
       </c>
@@ -4758,9 +4765,9 @@
       <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="112"/>
+      <c r="A84" s="121"/>
       <c r="B84" s="115"/>
-      <c r="C84" s="132"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="51" t="s">
         <v>406</v>
       </c>
@@ -4774,9 +4781,9 @@
       <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="112"/>
+      <c r="A85" s="121"/>
       <c r="B85" s="115"/>
-      <c r="C85" s="132"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="51" t="s">
         <v>407</v>
       </c>
@@ -4790,9 +4797,9 @@
       <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="112"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="133"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="125"/>
       <c r="D86" s="51" t="s">
         <v>408</v>
       </c>
@@ -4806,11 +4813,11 @@
       <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="112"/>
-      <c r="B87" s="114">
+      <c r="A87" s="121"/>
+      <c r="B87" s="117">
         <v>2.4</v>
       </c>
-      <c r="C87" s="131" t="s">
+      <c r="C87" s="130" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="102" t="s">
@@ -4826,9 +4833,9 @@
       <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="112"/>
+      <c r="A88" s="121"/>
       <c r="B88" s="115"/>
-      <c r="C88" s="132"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="102" t="s">
         <v>410</v>
       </c>
@@ -4840,9 +4847,9 @@
       <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="112"/>
+      <c r="A89" s="121"/>
       <c r="B89" s="115"/>
-      <c r="C89" s="132"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="102" t="s">
         <v>411</v>
       </c>
@@ -4856,9 +4863,9 @@
       <c r="H89" s="19"/>
     </row>
     <row r="90" spans="1:8" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="112"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="115"/>
-      <c r="C90" s="132"/>
+      <c r="C90" s="124"/>
       <c r="D90" s="102" t="s">
         <v>412</v>
       </c>
@@ -4872,9 +4879,9 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="1:8" ht="190.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="112"/>
+      <c r="A91" s="121"/>
       <c r="B91" s="115"/>
-      <c r="C91" s="132"/>
+      <c r="C91" s="124"/>
       <c r="D91" s="102" t="s">
         <v>413</v>
       </c>
@@ -4888,9 +4895,9 @@
       <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" ht="234.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="112"/>
+      <c r="A92" s="121"/>
       <c r="B92" s="115"/>
-      <c r="C92" s="132"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="102" t="s">
         <v>414</v>
       </c>
@@ -4904,9 +4911,9 @@
       <c r="H92" s="19"/>
     </row>
     <row r="93" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="112"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="115"/>
-      <c r="C93" s="132"/>
+      <c r="C93" s="124"/>
       <c r="D93" s="102" t="s">
         <v>415</v>
       </c>
@@ -4920,9 +4927,9 @@
       <c r="H93" s="19"/>
     </row>
     <row r="94" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="112"/>
+      <c r="A94" s="121"/>
       <c r="B94" s="115"/>
-      <c r="C94" s="132"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="102" t="s">
         <v>416</v>
       </c>
@@ -4936,9 +4943,9 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="112"/>
+      <c r="A95" s="121"/>
       <c r="B95" s="115"/>
-      <c r="C95" s="132"/>
+      <c r="C95" s="124"/>
       <c r="D95" s="102" t="s">
         <v>417</v>
       </c>
@@ -4952,9 +4959,9 @@
       <c r="H95" s="58"/>
     </row>
     <row r="96" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="112"/>
+      <c r="A96" s="121"/>
       <c r="B96" s="115"/>
-      <c r="C96" s="132"/>
+      <c r="C96" s="124"/>
       <c r="D96" s="102" t="s">
         <v>418</v>
       </c>
@@ -4968,9 +4975,9 @@
       <c r="H96" s="58"/>
     </row>
     <row r="97" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A97" s="112"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="132"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="118"/>
+      <c r="C97" s="124"/>
       <c r="D97" s="102" t="s">
         <v>419</v>
       </c>
@@ -4984,11 +4991,11 @@
       <c r="H97" s="58"/>
     </row>
     <row r="98" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="112"/>
-      <c r="B98" s="114">
+      <c r="A98" s="121"/>
+      <c r="B98" s="117">
         <v>2.5</v>
       </c>
-      <c r="C98" s="131" t="s">
+      <c r="C98" s="130" t="s">
         <v>109</v>
       </c>
       <c r="D98" s="102" t="s">
@@ -5004,9 +5011,9 @@
       <c r="H98" s="58"/>
     </row>
     <row r="99" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="112"/>
+      <c r="A99" s="121"/>
       <c r="B99" s="115"/>
-      <c r="C99" s="132"/>
+      <c r="C99" s="124"/>
       <c r="D99" s="102" t="s">
         <v>421</v>
       </c>
@@ -5018,9 +5025,9 @@
       <c r="H99" s="58"/>
     </row>
     <row r="100" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="112"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="115"/>
-      <c r="C100" s="132"/>
+      <c r="C100" s="124"/>
       <c r="D100" s="102" t="s">
         <v>422</v>
       </c>
@@ -5034,9 +5041,9 @@
       <c r="H100" s="58"/>
     </row>
     <row r="101" spans="1:8" ht="127.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="112"/>
+      <c r="A101" s="121"/>
       <c r="B101" s="115"/>
-      <c r="C101" s="132"/>
+      <c r="C101" s="124"/>
       <c r="D101" s="102" t="s">
         <v>423</v>
       </c>
@@ -5050,9 +5057,9 @@
       <c r="H101" s="58"/>
     </row>
     <row r="102" spans="1:8" ht="195.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="112"/>
+      <c r="A102" s="121"/>
       <c r="B102" s="115"/>
-      <c r="C102" s="132"/>
+      <c r="C102" s="124"/>
       <c r="D102" s="102" t="s">
         <v>424</v>
       </c>
@@ -5066,9 +5073,9 @@
       <c r="H102" s="58"/>
     </row>
     <row r="103" spans="1:8" ht="239.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="112"/>
+      <c r="A103" s="121"/>
       <c r="B103" s="115"/>
-      <c r="C103" s="132"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="102" t="s">
         <v>425</v>
       </c>
@@ -5082,9 +5089,9 @@
       <c r="H103" s="58"/>
     </row>
     <row r="104" spans="1:8" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="112"/>
+      <c r="A104" s="121"/>
       <c r="B104" s="115"/>
-      <c r="C104" s="132"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="102" t="s">
         <v>426</v>
       </c>
@@ -5098,9 +5105,9 @@
       <c r="H104" s="58"/>
     </row>
     <row r="105" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="112"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="115"/>
-      <c r="C105" s="132"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="102" t="s">
         <v>427</v>
       </c>
@@ -5114,9 +5121,9 @@
       <c r="H105" s="58"/>
     </row>
     <row r="106" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="112"/>
+      <c r="A106" s="121"/>
       <c r="B106" s="115"/>
-      <c r="C106" s="132"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="102" t="s">
         <v>428</v>
       </c>
@@ -5130,9 +5137,9 @@
       <c r="H106" s="58"/>
     </row>
     <row r="107" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="112"/>
+      <c r="A107" s="121"/>
       <c r="B107" s="115"/>
-      <c r="C107" s="132"/>
+      <c r="C107" s="124"/>
       <c r="D107" s="102" t="s">
         <v>429</v>
       </c>
@@ -5146,9 +5153,9 @@
       <c r="H107" s="58"/>
     </row>
     <row r="108" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="112"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="133"/>
+      <c r="A108" s="121"/>
+      <c r="B108" s="118"/>
+      <c r="C108" s="125"/>
       <c r="D108" s="102" t="s">
         <v>430</v>
       </c>
@@ -5162,11 +5169,11 @@
       <c r="H108" s="58"/>
     </row>
     <row r="109" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="112"/>
-      <c r="B109" s="114">
+      <c r="A109" s="121"/>
+      <c r="B109" s="117">
         <v>2.6</v>
       </c>
-      <c r="C109" s="131" t="s">
+      <c r="C109" s="130" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="102" t="s">
@@ -5182,9 +5189,9 @@
       <c r="H109" s="58"/>
     </row>
     <row r="110" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="112"/>
+      <c r="A110" s="121"/>
       <c r="B110" s="115"/>
-      <c r="C110" s="132"/>
+      <c r="C110" s="124"/>
       <c r="D110" s="101" t="s">
         <v>432</v>
       </c>
@@ -5196,9 +5203,9 @@
       <c r="H110" s="58"/>
     </row>
     <row r="111" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="112"/>
+      <c r="A111" s="121"/>
       <c r="B111" s="115"/>
-      <c r="C111" s="132"/>
+      <c r="C111" s="124"/>
       <c r="D111" s="102" t="s">
         <v>433</v>
       </c>
@@ -5212,9 +5219,9 @@
       <c r="H111" s="58"/>
     </row>
     <row r="112" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="112"/>
+      <c r="A112" s="121"/>
       <c r="B112" s="115"/>
-      <c r="C112" s="132"/>
+      <c r="C112" s="124"/>
       <c r="D112" s="101" t="s">
         <v>434</v>
       </c>
@@ -5228,9 +5235,9 @@
       <c r="H112" s="58"/>
     </row>
     <row r="113" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="112"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="115"/>
-      <c r="C113" s="132"/>
+      <c r="C113" s="124"/>
       <c r="D113" s="102" t="s">
         <v>435</v>
       </c>
@@ -5244,9 +5251,9 @@
       <c r="H113" s="58"/>
     </row>
     <row r="114" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="112"/>
+      <c r="A114" s="121"/>
       <c r="B114" s="115"/>
-      <c r="C114" s="132"/>
+      <c r="C114" s="124"/>
       <c r="D114" s="101" t="s">
         <v>436</v>
       </c>
@@ -5260,9 +5267,9 @@
       <c r="H114" s="58"/>
     </row>
     <row r="115" spans="1:8" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="112"/>
+      <c r="A115" s="121"/>
       <c r="B115" s="115"/>
-      <c r="C115" s="132"/>
+      <c r="C115" s="124"/>
       <c r="D115" s="102" t="s">
         <v>437</v>
       </c>
@@ -5276,9 +5283,9 @@
       <c r="H115" s="58"/>
     </row>
     <row r="116" spans="1:8" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="112"/>
+      <c r="A116" s="121"/>
       <c r="B116" s="115"/>
-      <c r="C116" s="132"/>
+      <c r="C116" s="124"/>
       <c r="D116" s="102" t="s">
         <v>438</v>
       </c>
@@ -5292,9 +5299,9 @@
       <c r="H116" s="58"/>
     </row>
     <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A117" s="112"/>
+      <c r="A117" s="121"/>
       <c r="B117" s="115"/>
-      <c r="C117" s="132"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="101" t="s">
         <v>439</v>
       </c>
@@ -5308,9 +5315,9 @@
       <c r="H117" s="58"/>
     </row>
     <row r="118" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A118" s="112"/>
+      <c r="A118" s="121"/>
       <c r="B118" s="115"/>
-      <c r="C118" s="132"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="102" t="s">
         <v>440</v>
       </c>
@@ -5324,9 +5331,9 @@
       <c r="H118" s="58"/>
     </row>
     <row r="119" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A119" s="112"/>
+      <c r="A119" s="121"/>
       <c r="B119" s="115"/>
-      <c r="C119" s="132"/>
+      <c r="C119" s="124"/>
       <c r="D119" s="101" t="s">
         <v>441</v>
       </c>
@@ -5340,9 +5347,9 @@
       <c r="H119" s="58"/>
     </row>
     <row r="120" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A120" s="112"/>
+      <c r="A120" s="121"/>
       <c r="B120" s="115"/>
-      <c r="C120" s="132"/>
+      <c r="C120" s="124"/>
       <c r="D120" s="102" t="s">
         <v>442</v>
       </c>
@@ -5356,9 +5363,9 @@
       <c r="H120" s="58"/>
     </row>
     <row r="121" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A121" s="112"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="133"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="118"/>
+      <c r="C121" s="125"/>
       <c r="D121" s="101" t="s">
         <v>443</v>
       </c>
@@ -5368,11 +5375,11 @@
       <c r="H121" s="58"/>
     </row>
     <row r="122" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A122" s="112"/>
-      <c r="B122" s="108">
+      <c r="A122" s="121"/>
+      <c r="B122" s="119">
         <v>2.7</v>
       </c>
-      <c r="C122" s="114" t="s">
+      <c r="C122" s="117" t="s">
         <v>128</v>
       </c>
       <c r="D122" s="99" t="s">
@@ -5388,8 +5395,8 @@
       <c r="H122" s="58"/>
     </row>
     <row r="123" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A123" s="112"/>
-      <c r="B123" s="109"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="112"/>
       <c r="C123" s="115"/>
       <c r="D123" s="99" t="s">
         <v>445</v>
@@ -5402,8 +5409,8 @@
       <c r="H123" s="58"/>
     </row>
     <row r="124" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A124" s="112"/>
-      <c r="B124" s="109"/>
+      <c r="A124" s="121"/>
+      <c r="B124" s="112"/>
       <c r="C124" s="115"/>
       <c r="D124" s="99" t="s">
         <v>446</v>
@@ -5418,8 +5425,8 @@
       <c r="H124" s="58"/>
     </row>
     <row r="125" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A125" s="112"/>
-      <c r="B125" s="109"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="112"/>
       <c r="C125" s="115"/>
       <c r="D125" s="99" t="s">
         <v>447</v>
@@ -5434,8 +5441,8 @@
       <c r="H125" s="58"/>
     </row>
     <row r="126" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A126" s="112"/>
-      <c r="B126" s="109"/>
+      <c r="A126" s="121"/>
+      <c r="B126" s="112"/>
       <c r="C126" s="115"/>
       <c r="D126" s="99" t="s">
         <v>448</v>
@@ -5450,8 +5457,8 @@
       <c r="H126" s="58"/>
     </row>
     <row r="127" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A127" s="112"/>
-      <c r="B127" s="109"/>
+      <c r="A127" s="121"/>
+      <c r="B127" s="112"/>
       <c r="C127" s="115"/>
       <c r="D127" s="99" t="s">
         <v>449</v>
@@ -5466,8 +5473,8 @@
       <c r="H127" s="58"/>
     </row>
     <row r="128" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A128" s="112"/>
-      <c r="B128" s="109"/>
+      <c r="A128" s="121"/>
+      <c r="B128" s="112"/>
       <c r="C128" s="115"/>
       <c r="D128" s="99" t="s">
         <v>450</v>
@@ -5482,8 +5489,8 @@
       <c r="H128" s="58"/>
     </row>
     <row r="129" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A129" s="112"/>
-      <c r="B129" s="109"/>
+      <c r="A129" s="121"/>
+      <c r="B129" s="112"/>
       <c r="C129" s="115"/>
       <c r="D129" s="99" t="s">
         <v>451</v>
@@ -5498,8 +5505,8 @@
       <c r="H129" s="58"/>
     </row>
     <row r="130" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A130" s="112"/>
-      <c r="B130" s="109"/>
+      <c r="A130" s="121"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="115"/>
       <c r="D130" s="99" t="s">
         <v>452</v>
@@ -5514,8 +5521,8 @@
       <c r="H130" s="58"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A131" s="112"/>
-      <c r="B131" s="109"/>
+      <c r="A131" s="121"/>
+      <c r="B131" s="112"/>
       <c r="C131" s="115"/>
       <c r="D131" s="99" t="s">
         <v>453</v>
@@ -5526,9 +5533,9 @@
       <c r="H131" s="58"/>
     </row>
     <row r="132" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A132" s="112"/>
-      <c r="B132" s="110"/>
-      <c r="C132" s="116"/>
+      <c r="A132" s="121"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="118"/>
       <c r="D132" s="99" t="s">
         <v>454</v>
       </c>
@@ -5538,11 +5545,11 @@
       <c r="H132" s="58"/>
     </row>
     <row r="133" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A133" s="112"/>
-      <c r="B133" s="108">
+      <c r="A133" s="121"/>
+      <c r="B133" s="119">
         <v>2.8</v>
       </c>
-      <c r="C133" s="114" t="s">
+      <c r="C133" s="117" t="s">
         <v>127</v>
       </c>
       <c r="D133" s="99" t="s">
@@ -5558,8 +5565,8 @@
       <c r="H133" s="58"/>
     </row>
     <row r="134" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A134" s="112"/>
-      <c r="B134" s="109"/>
+      <c r="A134" s="121"/>
+      <c r="B134" s="112"/>
       <c r="C134" s="115"/>
       <c r="D134" s="99" t="s">
         <v>456</v>
@@ -5572,8 +5579,8 @@
       <c r="H134" s="58"/>
     </row>
     <row r="135" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A135" s="112"/>
-      <c r="B135" s="109"/>
+      <c r="A135" s="121"/>
+      <c r="B135" s="112"/>
       <c r="C135" s="115"/>
       <c r="D135" s="99" t="s">
         <v>457</v>
@@ -5588,8 +5595,8 @@
       <c r="H135" s="58"/>
     </row>
     <row r="136" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="112"/>
-      <c r="B136" s="109"/>
+      <c r="A136" s="121"/>
+      <c r="B136" s="112"/>
       <c r="C136" s="115"/>
       <c r="D136" s="99" t="s">
         <v>458</v>
@@ -5604,8 +5611,8 @@
       <c r="H136" s="58"/>
     </row>
     <row r="137" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="112"/>
-      <c r="B137" s="109"/>
+      <c r="A137" s="121"/>
+      <c r="B137" s="112"/>
       <c r="C137" s="115"/>
       <c r="D137" s="99" t="s">
         <v>459</v>
@@ -5620,8 +5627,8 @@
       <c r="H137" s="58"/>
     </row>
     <row r="138" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="112"/>
-      <c r="B138" s="109"/>
+      <c r="A138" s="121"/>
+      <c r="B138" s="112"/>
       <c r="C138" s="115"/>
       <c r="D138" s="99" t="s">
         <v>460</v>
@@ -5636,8 +5643,8 @@
       <c r="H138" s="58"/>
     </row>
     <row r="139" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="112"/>
-      <c r="B139" s="109"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="112"/>
       <c r="C139" s="115"/>
       <c r="D139" s="99" t="s">
         <v>461</v>
@@ -5652,8 +5659,8 @@
       <c r="H139" s="58"/>
     </row>
     <row r="140" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="112"/>
-      <c r="B140" s="109"/>
+      <c r="A140" s="121"/>
+      <c r="B140" s="112"/>
       <c r="C140" s="115"/>
       <c r="D140" s="99" t="s">
         <v>462</v>
@@ -5668,8 +5675,8 @@
       <c r="H140" s="58"/>
     </row>
     <row r="141" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A141" s="112"/>
-      <c r="B141" s="109"/>
+      <c r="A141" s="121"/>
+      <c r="B141" s="112"/>
       <c r="C141" s="115"/>
       <c r="D141" s="99" t="s">
         <v>463</v>
@@ -5684,8 +5691,8 @@
       <c r="H141" s="58"/>
     </row>
     <row r="142" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A142" s="112"/>
-      <c r="B142" s="109"/>
+      <c r="A142" s="121"/>
+      <c r="B142" s="112"/>
       <c r="C142" s="115"/>
       <c r="D142" s="99" t="s">
         <v>464</v>
@@ -5700,8 +5707,8 @@
       <c r="H142" s="58"/>
     </row>
     <row r="143" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A143" s="112"/>
-      <c r="B143" s="109"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="112"/>
       <c r="C143" s="115"/>
       <c r="D143" s="99" t="s">
         <v>465</v>
@@ -5716,8 +5723,8 @@
       <c r="H143" s="58"/>
     </row>
     <row r="144" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A144" s="112"/>
-      <c r="B144" s="109"/>
+      <c r="A144" s="121"/>
+      <c r="B144" s="112"/>
       <c r="C144" s="115"/>
       <c r="D144" s="99" t="s">
         <v>466</v>
@@ -5732,9 +5739,9 @@
       <c r="H144" s="58"/>
     </row>
     <row r="145" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A145" s="112"/>
-      <c r="B145" s="110"/>
-      <c r="C145" s="116"/>
+      <c r="A145" s="121"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="118"/>
       <c r="D145" s="103"/>
       <c r="E145" s="70"/>
       <c r="F145" s="66"/>
@@ -5742,11 +5749,11 @@
       <c r="H145" s="58"/>
     </row>
     <row r="146" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A146" s="112"/>
-      <c r="B146" s="108">
+      <c r="A146" s="121"/>
+      <c r="B146" s="119">
         <v>2.9</v>
       </c>
-      <c r="C146" s="114" t="s">
+      <c r="C146" s="117" t="s">
         <v>150</v>
       </c>
       <c r="D146" s="99" t="s">
@@ -5762,8 +5769,8 @@
       <c r="H146" s="58"/>
     </row>
     <row r="147" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A147" s="112"/>
-      <c r="B147" s="109"/>
+      <c r="A147" s="121"/>
+      <c r="B147" s="112"/>
       <c r="C147" s="115"/>
       <c r="D147" s="99" t="s">
         <v>468</v>
@@ -5776,8 +5783,8 @@
       <c r="H147" s="58"/>
     </row>
     <row r="148" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A148" s="112"/>
-      <c r="B148" s="109"/>
+      <c r="A148" s="121"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="115"/>
       <c r="D148" s="99" t="s">
         <v>469</v>
@@ -5792,8 +5799,8 @@
       <c r="H148" s="58"/>
     </row>
     <row r="149" spans="1:8" ht="162" x14ac:dyDescent="0.2">
-      <c r="A149" s="112"/>
-      <c r="B149" s="109"/>
+      <c r="A149" s="121"/>
+      <c r="B149" s="112"/>
       <c r="C149" s="115"/>
       <c r="D149" s="99" t="s">
         <v>470</v>
@@ -5808,8 +5815,8 @@
       <c r="H149" s="58"/>
     </row>
     <row r="150" spans="1:8" ht="162" x14ac:dyDescent="0.2">
-      <c r="A150" s="112"/>
-      <c r="B150" s="109"/>
+      <c r="A150" s="121"/>
+      <c r="B150" s="112"/>
       <c r="C150" s="115"/>
       <c r="D150" s="99" t="s">
         <v>471</v>
@@ -5824,8 +5831,8 @@
       <c r="H150" s="58"/>
     </row>
     <row r="151" spans="1:8" ht="162" x14ac:dyDescent="0.2">
-      <c r="A151" s="112"/>
-      <c r="B151" s="109"/>
+      <c r="A151" s="121"/>
+      <c r="B151" s="112"/>
       <c r="C151" s="115"/>
       <c r="D151" s="99" t="s">
         <v>472</v>
@@ -5840,8 +5847,8 @@
       <c r="H151" s="58"/>
     </row>
     <row r="152" spans="1:8" ht="162" x14ac:dyDescent="0.2">
-      <c r="A152" s="112"/>
-      <c r="B152" s="109"/>
+      <c r="A152" s="121"/>
+      <c r="B152" s="112"/>
       <c r="C152" s="115"/>
       <c r="D152" s="99" t="s">
         <v>473</v>
@@ -5856,8 +5863,8 @@
       <c r="H152" s="58"/>
     </row>
     <row r="153" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="112"/>
-      <c r="B153" s="109"/>
+      <c r="A153" s="121"/>
+      <c r="B153" s="112"/>
       <c r="C153" s="115"/>
       <c r="D153" s="99" t="s">
         <v>474</v>
@@ -5872,8 +5879,8 @@
       <c r="H153" s="58"/>
     </row>
     <row r="154" spans="1:8" ht="189" x14ac:dyDescent="0.2">
-      <c r="A154" s="112"/>
-      <c r="B154" s="109"/>
+      <c r="A154" s="121"/>
+      <c r="B154" s="112"/>
       <c r="C154" s="115"/>
       <c r="D154" s="99" t="s">
         <v>475</v>
@@ -5888,8 +5895,8 @@
       <c r="H154" s="58"/>
     </row>
     <row r="155" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A155" s="112"/>
-      <c r="B155" s="109"/>
+      <c r="A155" s="121"/>
+      <c r="B155" s="112"/>
       <c r="C155" s="115"/>
       <c r="D155" s="99" t="s">
         <v>476</v>
@@ -5904,8 +5911,8 @@
       <c r="H155" s="58"/>
     </row>
     <row r="156" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A156" s="112"/>
-      <c r="B156" s="109"/>
+      <c r="A156" s="121"/>
+      <c r="B156" s="112"/>
       <c r="C156" s="115"/>
       <c r="D156" s="99" t="s">
         <v>477</v>
@@ -5920,8 +5927,8 @@
       <c r="H156" s="58"/>
     </row>
     <row r="157" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A157" s="112"/>
-      <c r="B157" s="109"/>
+      <c r="A157" s="121"/>
+      <c r="B157" s="112"/>
       <c r="C157" s="115"/>
       <c r="D157" s="99" t="s">
         <v>478</v>
@@ -5936,8 +5943,8 @@
       <c r="H157" s="58"/>
     </row>
     <row r="158" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A158" s="112"/>
-      <c r="B158" s="109"/>
+      <c r="A158" s="121"/>
+      <c r="B158" s="112"/>
       <c r="C158" s="115"/>
       <c r="D158" s="99" t="s">
         <v>479</v>
@@ -5952,8 +5959,8 @@
       <c r="H158" s="58"/>
     </row>
     <row r="159" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A159" s="112"/>
-      <c r="B159" s="109"/>
+      <c r="A159" s="121"/>
+      <c r="B159" s="112"/>
       <c r="C159" s="115"/>
       <c r="D159" s="104"/>
       <c r="E159" s="73"/>
@@ -5962,9 +5969,9 @@
       <c r="H159" s="58"/>
     </row>
     <row r="160" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="113"/>
-      <c r="B160" s="119"/>
-      <c r="C160" s="117"/>
+      <c r="A160" s="122"/>
+      <c r="B160" s="113"/>
+      <c r="C160" s="116"/>
       <c r="D160" s="105"/>
       <c r="E160" s="74"/>
       <c r="F160" s="75"/>
@@ -5972,13 +5979,13 @@
       <c r="H160" s="58"/>
     </row>
     <row r="161" spans="1:8" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="111" t="s">
+      <c r="A161" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="B161" s="120">
+      <c r="B161" s="111">
         <v>3.1</v>
       </c>
-      <c r="C161" s="118" t="s">
+      <c r="C161" s="114" t="s">
         <v>104</v>
       </c>
       <c r="D161" s="96" t="s">
@@ -5994,8 +6001,8 @@
       <c r="H161" s="58"/>
     </row>
     <row r="162" spans="1:8" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="112"/>
-      <c r="B162" s="109"/>
+      <c r="A162" s="121"/>
+      <c r="B162" s="112"/>
       <c r="C162" s="115"/>
       <c r="D162" s="96" t="s">
         <v>481</v>
@@ -6010,8 +6017,8 @@
       <c r="H162" s="58"/>
     </row>
     <row r="163" spans="1:8" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="112"/>
-      <c r="B163" s="109"/>
+      <c r="A163" s="121"/>
+      <c r="B163" s="112"/>
       <c r="C163" s="115"/>
       <c r="D163" s="96" t="s">
         <v>482</v>
@@ -6026,8 +6033,8 @@
       <c r="H163" s="58"/>
     </row>
     <row r="164" spans="1:8" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="112"/>
-      <c r="B164" s="109"/>
+      <c r="A164" s="121"/>
+      <c r="B164" s="112"/>
       <c r="C164" s="115"/>
       <c r="D164" s="96" t="s">
         <v>483</v>
@@ -6042,8 +6049,8 @@
       <c r="H164" s="58"/>
     </row>
     <row r="165" spans="1:8" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="112"/>
-      <c r="B165" s="109"/>
+      <c r="A165" s="121"/>
+      <c r="B165" s="112"/>
       <c r="C165" s="115"/>
       <c r="D165" s="96" t="s">
         <v>484</v>
@@ -6056,8 +6063,8 @@
       <c r="H165" s="58"/>
     </row>
     <row r="166" spans="1:8" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="112"/>
-      <c r="B166" s="109"/>
+      <c r="A166" s="121"/>
+      <c r="B166" s="112"/>
       <c r="C166" s="115"/>
       <c r="D166" s="96" t="s">
         <v>485</v>
@@ -6072,8 +6079,8 @@
       <c r="H166" s="58"/>
     </row>
     <row r="167" spans="1:8" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="112"/>
-      <c r="B167" s="109"/>
+      <c r="A167" s="121"/>
+      <c r="B167" s="112"/>
       <c r="C167" s="115"/>
       <c r="D167" s="96" t="s">
         <v>486</v>
@@ -6086,8 +6093,8 @@
       <c r="H167" s="58"/>
     </row>
     <row r="168" spans="1:8" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="112"/>
-      <c r="B168" s="109"/>
+      <c r="A168" s="121"/>
+      <c r="B168" s="112"/>
       <c r="C168" s="115"/>
       <c r="D168" s="96" t="s">
         <v>487</v>
@@ -6102,9 +6109,9 @@
       <c r="H168" s="58"/>
     </row>
     <row r="169" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="112"/>
-      <c r="B169" s="110"/>
-      <c r="C169" s="116"/>
+      <c r="A169" s="121"/>
+      <c r="B169" s="129"/>
+      <c r="C169" s="118"/>
       <c r="D169" s="96" t="s">
         <v>488</v>
       </c>
@@ -6118,11 +6125,11 @@
       <c r="H169" s="58"/>
     </row>
     <row r="170" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="112"/>
-      <c r="B170" s="109">
+      <c r="A170" s="121"/>
+      <c r="B170" s="112">
         <v>3.2</v>
       </c>
-      <c r="C170" s="114" t="s">
+      <c r="C170" s="117" t="s">
         <v>201</v>
       </c>
       <c r="D170" s="97" t="s">
@@ -6138,8 +6145,8 @@
       <c r="H170" s="58"/>
     </row>
     <row r="171" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="112"/>
-      <c r="B171" s="109"/>
+      <c r="A171" s="121"/>
+      <c r="B171" s="112"/>
       <c r="C171" s="115"/>
       <c r="D171" s="97" t="s">
         <v>490</v>
@@ -6154,8 +6161,8 @@
       <c r="H171" s="58"/>
     </row>
     <row r="172" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="112"/>
-      <c r="B172" s="109"/>
+      <c r="A172" s="121"/>
+      <c r="B172" s="112"/>
       <c r="C172" s="115"/>
       <c r="D172" s="97" t="s">
         <v>491</v>
@@ -6170,8 +6177,8 @@
       <c r="H172" s="58"/>
     </row>
     <row r="173" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="112"/>
-      <c r="B173" s="109"/>
+      <c r="A173" s="121"/>
+      <c r="B173" s="112"/>
       <c r="C173" s="115"/>
       <c r="D173" s="97" t="s">
         <v>492</v>
@@ -6186,8 +6193,8 @@
       <c r="H173" s="58"/>
     </row>
     <row r="174" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="112"/>
-      <c r="B174" s="109"/>
+      <c r="A174" s="121"/>
+      <c r="B174" s="112"/>
       <c r="C174" s="115"/>
       <c r="D174" s="97" t="s">
         <v>493</v>
@@ -6202,8 +6209,8 @@
       <c r="H174" s="58"/>
     </row>
     <row r="175" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="112"/>
-      <c r="B175" s="109"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="112"/>
       <c r="C175" s="115"/>
       <c r="D175" s="97" t="s">
         <v>494</v>
@@ -6218,9 +6225,9 @@
       <c r="H175" s="58"/>
     </row>
     <row r="176" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="113"/>
-      <c r="B176" s="119"/>
-      <c r="C176" s="117"/>
+      <c r="A176" s="122"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="116"/>
       <c r="D176" s="97" t="s">
         <v>495</v>
       </c>
@@ -6234,13 +6241,13 @@
       <c r="H176" s="58"/>
     </row>
     <row r="177" spans="1:17" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="111" t="s">
+      <c r="A177" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="B177" s="120">
+      <c r="B177" s="111">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C177" s="118" t="s">
+      <c r="C177" s="114" t="s">
         <v>104</v>
       </c>
       <c r="D177" s="96" t="s">
@@ -6256,8 +6263,8 @@
       <c r="H177" s="82"/>
     </row>
     <row r="178" spans="1:17" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="112"/>
-      <c r="B178" s="109"/>
+      <c r="A178" s="121"/>
+      <c r="B178" s="112"/>
       <c r="C178" s="115"/>
       <c r="D178" s="96" t="s">
         <v>497</v>
@@ -6272,8 +6279,8 @@
       <c r="H178" s="82"/>
     </row>
     <row r="179" spans="1:17" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="112"/>
-      <c r="B179" s="109"/>
+      <c r="A179" s="121"/>
+      <c r="B179" s="112"/>
       <c r="C179" s="115"/>
       <c r="D179" s="96" t="s">
         <v>498</v>
@@ -6288,8 +6295,8 @@
       <c r="H179" s="82"/>
     </row>
     <row r="180" spans="1:17" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="112"/>
-      <c r="B180" s="109"/>
+      <c r="A180" s="121"/>
+      <c r="B180" s="112"/>
       <c r="C180" s="115"/>
       <c r="D180" s="96" t="s">
         <v>499</v>
@@ -6304,8 +6311,8 @@
       <c r="H180" s="82"/>
     </row>
     <row r="181" spans="1:17" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="112"/>
-      <c r="B181" s="109"/>
+      <c r="A181" s="121"/>
+      <c r="B181" s="112"/>
       <c r="C181" s="115"/>
       <c r="D181" s="96" t="s">
         <v>500</v>
@@ -6318,8 +6325,8 @@
       <c r="H181" s="82"/>
     </row>
     <row r="182" spans="1:17" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="112"/>
-      <c r="B182" s="109"/>
+      <c r="A182" s="121"/>
+      <c r="B182" s="112"/>
       <c r="C182" s="115"/>
       <c r="D182" s="96" t="s">
         <v>501</v>
@@ -6334,8 +6341,8 @@
       <c r="H182" s="82"/>
     </row>
     <row r="183" spans="1:17" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="112"/>
-      <c r="B183" s="109"/>
+      <c r="A183" s="121"/>
+      <c r="B183" s="112"/>
       <c r="C183" s="115"/>
       <c r="D183" s="96" t="s">
         <v>502</v>
@@ -6353,8 +6360,8 @@
       </c>
     </row>
     <row r="184" spans="1:17" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="112"/>
-      <c r="B184" s="109"/>
+      <c r="A184" s="121"/>
+      <c r="B184" s="112"/>
       <c r="C184" s="115"/>
       <c r="D184" s="96" t="s">
         <v>503</v>
@@ -6369,8 +6376,8 @@
       <c r="H184" s="82"/>
     </row>
     <row r="185" spans="1:17" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="112"/>
-      <c r="B185" s="109"/>
+      <c r="A185" s="121"/>
+      <c r="B185" s="112"/>
       <c r="C185" s="115"/>
       <c r="D185" s="96" t="s">
         <v>504</v>
@@ -6385,8 +6392,8 @@
       <c r="H185" s="82"/>
     </row>
     <row r="186" spans="1:17" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="112"/>
-      <c r="B186" s="109"/>
+      <c r="A186" s="121"/>
+      <c r="B186" s="112"/>
       <c r="C186" s="115"/>
       <c r="D186" s="96" t="s">
         <v>505</v>
@@ -6401,9 +6408,9 @@
       <c r="H186" s="82"/>
     </row>
     <row r="187" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="112"/>
-      <c r="B187" s="110"/>
-      <c r="C187" s="116"/>
+      <c r="A187" s="121"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="118"/>
       <c r="D187" s="96" t="s">
         <v>506</v>
       </c>
@@ -6417,11 +6424,11 @@
       <c r="H187" s="82"/>
     </row>
     <row r="188" spans="1:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="112"/>
-      <c r="B188" s="109">
+      <c r="A188" s="121"/>
+      <c r="B188" s="112">
         <v>4.2</v>
       </c>
-      <c r="C188" s="114" t="s">
+      <c r="C188" s="117" t="s">
         <v>201</v>
       </c>
       <c r="D188" s="97"/>
@@ -6435,8 +6442,8 @@
       <c r="H188" s="82"/>
     </row>
     <row r="189" spans="1:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="112"/>
-      <c r="B189" s="109"/>
+      <c r="A189" s="121"/>
+      <c r="B189" s="112"/>
       <c r="C189" s="115"/>
       <c r="D189" s="97"/>
       <c r="E189" s="20" t="s">
@@ -6449,8 +6456,8 @@
       <c r="H189" s="82"/>
     </row>
     <row r="190" spans="1:17" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="112"/>
-      <c r="B190" s="109"/>
+      <c r="A190" s="121"/>
+      <c r="B190" s="112"/>
       <c r="C190" s="115"/>
       <c r="D190" s="97"/>
       <c r="E190" s="20" t="s">
@@ -6463,8 +6470,8 @@
       <c r="H190" s="82"/>
     </row>
     <row r="191" spans="1:17" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="112"/>
-      <c r="B191" s="109"/>
+      <c r="A191" s="121"/>
+      <c r="B191" s="112"/>
       <c r="C191" s="115"/>
       <c r="D191" s="97"/>
       <c r="E191" s="20" t="s">
@@ -6477,8 +6484,8 @@
       <c r="H191" s="82"/>
     </row>
     <row r="192" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="112"/>
-      <c r="B192" s="109"/>
+      <c r="A192" s="121"/>
+      <c r="B192" s="112"/>
       <c r="C192" s="115"/>
       <c r="D192" s="97"/>
       <c r="E192" s="20" t="s">
@@ -6491,8 +6498,8 @@
       <c r="H192" s="82"/>
     </row>
     <row r="193" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="112"/>
-      <c r="B193" s="109"/>
+      <c r="A193" s="121"/>
+      <c r="B193" s="112"/>
       <c r="C193" s="115"/>
       <c r="D193" s="97"/>
       <c r="E193" s="20" t="s">
@@ -6505,8 +6512,8 @@
       <c r="H193" s="82"/>
     </row>
     <row r="194" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A194" s="112"/>
-      <c r="B194" s="109"/>
+      <c r="A194" s="121"/>
+      <c r="B194" s="112"/>
       <c r="C194" s="115"/>
       <c r="D194" s="97"/>
       <c r="E194" s="20" t="s">
@@ -6519,8 +6526,8 @@
       <c r="H194" s="82"/>
     </row>
     <row r="195" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="112"/>
-      <c r="B195" s="109"/>
+      <c r="A195" s="121"/>
+      <c r="B195" s="112"/>
       <c r="C195" s="115"/>
       <c r="D195" s="97"/>
       <c r="E195" s="23" t="s">
@@ -6533,8 +6540,8 @@
       <c r="H195" s="82"/>
     </row>
     <row r="196" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="112"/>
-      <c r="B196" s="109"/>
+      <c r="A196" s="121"/>
+      <c r="B196" s="112"/>
       <c r="C196" s="115"/>
       <c r="D196" s="97"/>
       <c r="E196" s="20"/>
@@ -6543,13 +6550,13 @@
       <c r="H196" s="82"/>
     </row>
     <row r="197" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="138" t="s">
+      <c r="A197" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="B197" s="120">
+      <c r="B197" s="111">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C197" s="118" t="s">
+      <c r="C197" s="114" t="s">
         <v>104</v>
       </c>
       <c r="D197" s="96"/>
@@ -6560,11 +6567,13 @@
       <c r="G197" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="H197" s="82"/>
+      <c r="H197" s="82" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="139"/>
-      <c r="B198" s="109"/>
+      <c r="A198" s="127"/>
+      <c r="B198" s="112"/>
       <c r="C198" s="115"/>
       <c r="D198" s="97"/>
       <c r="E198" s="20" t="s">
@@ -6577,8 +6586,8 @@
       <c r="H198" s="82"/>
     </row>
     <row r="199" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="139"/>
-      <c r="B199" s="109"/>
+      <c r="A199" s="127"/>
+      <c r="B199" s="112"/>
       <c r="C199" s="115"/>
       <c r="D199" s="97"/>
       <c r="E199" s="20" t="s">
@@ -6591,8 +6600,8 @@
       <c r="H199" s="82"/>
     </row>
     <row r="200" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="139"/>
-      <c r="B200" s="109"/>
+      <c r="A200" s="127"/>
+      <c r="B200" s="112"/>
       <c r="C200" s="115"/>
       <c r="D200" s="97"/>
       <c r="E200" s="20" t="s">
@@ -6605,8 +6614,8 @@
       <c r="H200" s="82"/>
     </row>
     <row r="201" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="139"/>
-      <c r="B201" s="109"/>
+      <c r="A201" s="127"/>
+      <c r="B201" s="112"/>
       <c r="C201" s="115"/>
       <c r="D201" s="97"/>
       <c r="E201" s="20" t="s">
@@ -6617,8 +6626,8 @@
       <c r="H201" s="82"/>
     </row>
     <row r="202" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="139"/>
-      <c r="B202" s="109"/>
+      <c r="A202" s="127"/>
+      <c r="B202" s="112"/>
       <c r="C202" s="115"/>
       <c r="D202" s="97"/>
       <c r="E202" s="20" t="s">
@@ -6631,8 +6640,8 @@
       <c r="H202" s="82"/>
     </row>
     <row r="203" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="139"/>
-      <c r="B203" s="109"/>
+      <c r="A203" s="127"/>
+      <c r="B203" s="112"/>
       <c r="C203" s="115"/>
       <c r="D203" s="97"/>
       <c r="E203" s="20" t="s">
@@ -6645,8 +6654,8 @@
       <c r="H203" s="82"/>
     </row>
     <row r="204" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A204" s="139"/>
-      <c r="B204" s="109"/>
+      <c r="A204" s="127"/>
+      <c r="B204" s="112"/>
       <c r="C204" s="115"/>
       <c r="D204" s="97"/>
       <c r="E204" s="20" t="s">
@@ -6659,9 +6668,9 @@
       <c r="H204" s="87"/>
     </row>
     <row r="205" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A205" s="139"/>
-      <c r="B205" s="110"/>
-      <c r="C205" s="116"/>
+      <c r="A205" s="127"/>
+      <c r="B205" s="129"/>
+      <c r="C205" s="118"/>
       <c r="D205" s="98"/>
       <c r="E205" s="43" t="s">
         <v>180</v>
@@ -6673,11 +6682,11 @@
       <c r="H205" s="87"/>
     </row>
     <row r="206" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A206" s="139"/>
-      <c r="B206" s="108">
+      <c r="A206" s="127"/>
+      <c r="B206" s="119">
         <v>5.2</v>
       </c>
-      <c r="C206" s="114" t="s">
+      <c r="C206" s="117" t="s">
         <v>201</v>
       </c>
       <c r="D206" s="97"/>
@@ -6691,8 +6700,8 @@
       <c r="H206" s="87"/>
     </row>
     <row r="207" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A207" s="139"/>
-      <c r="B207" s="109"/>
+      <c r="A207" s="127"/>
+      <c r="B207" s="112"/>
       <c r="C207" s="115"/>
       <c r="D207" s="97"/>
       <c r="E207" s="20" t="s">
@@ -6705,8 +6714,8 @@
       <c r="H207" s="87"/>
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="139"/>
-      <c r="B208" s="109"/>
+      <c r="A208" s="127"/>
+      <c r="B208" s="112"/>
       <c r="C208" s="115"/>
       <c r="D208" s="97"/>
       <c r="E208" s="20" t="s">
@@ -6719,8 +6728,8 @@
       <c r="H208" s="87"/>
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="139"/>
-      <c r="B209" s="109"/>
+      <c r="A209" s="127"/>
+      <c r="B209" s="112"/>
       <c r="C209" s="115"/>
       <c r="D209" s="97"/>
       <c r="E209" s="20" t="s">
@@ -6733,8 +6742,8 @@
       <c r="H209" s="87"/>
     </row>
     <row r="210" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A210" s="139"/>
-      <c r="B210" s="109"/>
+      <c r="A210" s="127"/>
+      <c r="B210" s="112"/>
       <c r="C210" s="115"/>
       <c r="D210" s="97"/>
       <c r="E210" s="20" t="s">
@@ -6747,8 +6756,8 @@
       <c r="H210" s="87"/>
     </row>
     <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="139"/>
-      <c r="B211" s="109"/>
+      <c r="A211" s="127"/>
+      <c r="B211" s="112"/>
       <c r="C211" s="115"/>
       <c r="D211" s="97"/>
       <c r="E211" s="20" t="s">
@@ -6761,8 +6770,8 @@
       <c r="H211" s="87"/>
     </row>
     <row r="212" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A212" s="139"/>
-      <c r="B212" s="109"/>
+      <c r="A212" s="127"/>
+      <c r="B212" s="112"/>
       <c r="C212" s="115"/>
       <c r="D212" s="97"/>
       <c r="E212" s="28" t="s">
@@ -6775,9 +6784,9 @@
       <c r="H212" s="87"/>
     </row>
     <row r="213" spans="1:8" ht="82" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="140"/>
-      <c r="B213" s="119"/>
-      <c r="C213" s="117"/>
+      <c r="A213" s="128"/>
+      <c r="B213" s="113"/>
+      <c r="C213" s="116"/>
       <c r="D213" s="100"/>
       <c r="E213" s="47" t="s">
         <v>217</v>
@@ -6789,13 +6798,13 @@
       <c r="H213" s="87"/>
     </row>
     <row r="214" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A214" s="138" t="s">
+      <c r="A214" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="B214" s="120">
+      <c r="B214" s="111">
         <v>6.1</v>
       </c>
-      <c r="C214" s="118" t="s">
+      <c r="C214" s="114" t="s">
         <v>220</v>
       </c>
       <c r="D214" s="96"/>
@@ -6806,11 +6815,13 @@
       <c r="G214" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="H214" s="87"/>
+      <c r="H214" s="87" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="139"/>
-      <c r="B215" s="109"/>
+      <c r="A215" s="127"/>
+      <c r="B215" s="112"/>
       <c r="C215" s="115"/>
       <c r="D215" s="97"/>
       <c r="E215" s="20" t="s">
@@ -6823,8 +6834,8 @@
       <c r="H215" s="87"/>
     </row>
     <row r="216" spans="1:8" ht="324" x14ac:dyDescent="0.2">
-      <c r="A216" s="139"/>
-      <c r="B216" s="109"/>
+      <c r="A216" s="127"/>
+      <c r="B216" s="112"/>
       <c r="C216" s="115"/>
       <c r="D216" s="97"/>
       <c r="E216" s="20" t="s">
@@ -6837,8 +6848,8 @@
       <c r="H216" s="87"/>
     </row>
     <row r="217" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A217" s="139"/>
-      <c r="B217" s="109"/>
+      <c r="A217" s="127"/>
+      <c r="B217" s="112"/>
       <c r="C217" s="115"/>
       <c r="D217" s="97"/>
       <c r="E217" s="20" t="s">
@@ -6851,8 +6862,8 @@
       <c r="H217" s="87"/>
     </row>
     <row r="218" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A218" s="139"/>
-      <c r="B218" s="109"/>
+      <c r="A218" s="127"/>
+      <c r="B218" s="112"/>
       <c r="C218" s="115"/>
       <c r="D218" s="97"/>
       <c r="E218" s="20" t="s">
@@ -6865,8 +6876,8 @@
       <c r="H218" s="87"/>
     </row>
     <row r="219" spans="1:8" ht="81" x14ac:dyDescent="0.2">
-      <c r="A219" s="139"/>
-      <c r="B219" s="109"/>
+      <c r="A219" s="127"/>
+      <c r="B219" s="112"/>
       <c r="C219" s="115"/>
       <c r="D219" s="97"/>
       <c r="E219" s="20" t="s">
@@ -6879,8 +6890,8 @@
       <c r="H219" s="87"/>
     </row>
     <row r="220" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A220" s="139"/>
-      <c r="B220" s="109"/>
+      <c r="A220" s="127"/>
+      <c r="B220" s="112"/>
       <c r="C220" s="115"/>
       <c r="D220" s="97"/>
       <c r="E220" s="28"/>
@@ -6889,8 +6900,8 @@
       <c r="H220" s="87"/>
     </row>
     <row r="221" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="139"/>
-      <c r="B221" s="109"/>
+      <c r="A221" s="127"/>
+      <c r="B221" s="112"/>
       <c r="C221" s="115"/>
       <c r="D221" s="97"/>
       <c r="E221" s="20"/>
@@ -6899,13 +6910,13 @@
       <c r="H221" s="87"/>
     </row>
     <row r="222" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="121" t="s">
+      <c r="A222" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="B222" s="120">
+      <c r="B222" s="111">
         <v>7.1</v>
       </c>
-      <c r="C222" s="123"/>
+      <c r="C222" s="133"/>
       <c r="D222" s="106"/>
       <c r="E222" s="16" t="s">
         <v>233</v>
@@ -6917,9 +6928,9 @@
       <c r="H222" s="87"/>
     </row>
     <row r="223" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="122"/>
-      <c r="B223" s="109"/>
-      <c r="C223" s="124"/>
+      <c r="A223" s="132"/>
+      <c r="B223" s="112"/>
+      <c r="C223" s="134"/>
       <c r="D223" s="104"/>
       <c r="E223" s="20" t="s">
         <v>235</v>
@@ -6931,9 +6942,9 @@
       <c r="H223" s="87"/>
     </row>
     <row r="224" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="122"/>
-      <c r="B224" s="109"/>
-      <c r="C224" s="124"/>
+      <c r="A224" s="132"/>
+      <c r="B224" s="112"/>
+      <c r="C224" s="134"/>
       <c r="D224" s="104"/>
       <c r="E224" s="20" t="s">
         <v>237</v>
@@ -6945,9 +6956,9 @@
       <c r="H224" s="87"/>
     </row>
     <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="122"/>
-      <c r="B225" s="109"/>
-      <c r="C225" s="124"/>
+      <c r="A225" s="132"/>
+      <c r="B225" s="112"/>
+      <c r="C225" s="134"/>
       <c r="D225" s="104"/>
       <c r="E225" s="20" t="s">
         <v>239</v>
@@ -6959,9 +6970,9 @@
       <c r="H225" s="87"/>
     </row>
     <row r="226" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="122"/>
-      <c r="B226" s="109"/>
-      <c r="C226" s="124"/>
+      <c r="A226" s="132"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="134"/>
       <c r="D226" s="104"/>
       <c r="E226" s="20" t="s">
         <v>241</v>
@@ -6971,9 +6982,9 @@
       <c r="H226" s="87"/>
     </row>
     <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="122"/>
-      <c r="B227" s="109"/>
-      <c r="C227" s="124"/>
+      <c r="A227" s="132"/>
+      <c r="B227" s="112"/>
+      <c r="C227" s="134"/>
       <c r="D227" s="104"/>
       <c r="E227" s="20" t="s">
         <v>242</v>
@@ -6985,9 +6996,9 @@
       <c r="H227" s="87"/>
     </row>
     <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="122"/>
-      <c r="B228" s="109"/>
-      <c r="C228" s="124"/>
+      <c r="A228" s="132"/>
+      <c r="B228" s="112"/>
+      <c r="C228" s="134"/>
       <c r="D228" s="104"/>
       <c r="E228" s="20" t="s">
         <v>244</v>
@@ -6999,9 +7010,9 @@
       <c r="H228" s="87"/>
     </row>
     <row r="229" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="122"/>
-      <c r="B229" s="109"/>
-      <c r="C229" s="124"/>
+      <c r="A229" s="132"/>
+      <c r="B229" s="112"/>
+      <c r="C229" s="134"/>
       <c r="D229" s="104"/>
       <c r="E229" s="64" t="s">
         <v>246</v>
@@ -7013,9 +7024,9 @@
       <c r="H229" s="87"/>
     </row>
     <row r="230" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="122"/>
-      <c r="B230" s="109"/>
-      <c r="C230" s="124"/>
+      <c r="A230" s="132"/>
+      <c r="B230" s="112"/>
+      <c r="C230" s="134"/>
       <c r="D230" s="104"/>
       <c r="E230" s="20" t="s">
         <v>248</v>
@@ -7027,9 +7038,9 @@
       <c r="H230" s="87"/>
     </row>
     <row r="231" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="122"/>
-      <c r="B231" s="109"/>
-      <c r="C231" s="124"/>
+      <c r="A231" s="132"/>
+      <c r="B231" s="112"/>
+      <c r="C231" s="134"/>
       <c r="D231" s="104"/>
       <c r="E231" s="64"/>
       <c r="F231" s="59"/>
@@ -7037,13 +7048,13 @@
       <c r="H231" s="87"/>
     </row>
     <row r="232" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="134" t="s">
+      <c r="A232" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="B232" s="120">
+      <c r="B232" s="111">
         <v>8.1</v>
       </c>
-      <c r="C232" s="118"/>
+      <c r="C232" s="114"/>
       <c r="D232" s="96"/>
       <c r="E232" s="50" t="s">
         <v>296</v>
@@ -7055,8 +7066,8 @@
       <c r="H232" s="87"/>
     </row>
     <row r="233" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="135"/>
-      <c r="B233" s="109"/>
+      <c r="A233" s="109"/>
+      <c r="B233" s="112"/>
       <c r="C233" s="115"/>
       <c r="D233" s="97"/>
       <c r="E233" s="28" t="s">
@@ -7069,8 +7080,8 @@
       <c r="H233" s="87"/>
     </row>
     <row r="234" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="135"/>
-      <c r="B234" s="109"/>
+      <c r="A234" s="109"/>
+      <c r="B234" s="112"/>
       <c r="C234" s="115"/>
       <c r="D234" s="97"/>
       <c r="E234" s="28" t="s">
@@ -7083,8 +7094,8 @@
       <c r="H234" s="87"/>
     </row>
     <row r="235" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="135"/>
-      <c r="B235" s="109"/>
+      <c r="A235" s="109"/>
+      <c r="B235" s="112"/>
       <c r="C235" s="115"/>
       <c r="D235" s="97"/>
       <c r="E235" s="23" t="s">
@@ -7097,8 +7108,8 @@
       <c r="H235" s="87"/>
     </row>
     <row r="236" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="135"/>
-      <c r="B236" s="109"/>
+      <c r="A236" s="109"/>
+      <c r="B236" s="112"/>
       <c r="C236" s="115"/>
       <c r="D236" s="97"/>
       <c r="E236" s="28" t="s">
@@ -7111,9 +7122,9 @@
       <c r="H236" s="87"/>
     </row>
     <row r="237" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="136"/>
-      <c r="B237" s="119"/>
-      <c r="C237" s="117"/>
+      <c r="A237" s="110"/>
+      <c r="B237" s="113"/>
+      <c r="C237" s="116"/>
       <c r="D237" s="48"/>
       <c r="E237" s="76"/>
       <c r="F237" s="75"/>
@@ -7128,6 +7139,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="A177:A196"/>
+    <mergeCell ref="B170:B176"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="C31:C46"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C53:C69"/>
+    <mergeCell ref="B53:B69"/>
+    <mergeCell ref="A222:A231"/>
+    <mergeCell ref="B222:B231"/>
+    <mergeCell ref="C222:C231"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="C206:C213"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A4:A52"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="C87:C97"/>
+    <mergeCell ref="B98:B108"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="C177:C187"/>
+    <mergeCell ref="C188:C196"/>
+    <mergeCell ref="C161:C169"/>
+    <mergeCell ref="C170:C176"/>
+    <mergeCell ref="B161:B169"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="B133:B145"/>
+    <mergeCell ref="B188:B196"/>
     <mergeCell ref="A232:A237"/>
     <mergeCell ref="B232:B237"/>
     <mergeCell ref="C232:C237"/>
@@ -7144,45 +7194,6 @@
     <mergeCell ref="A197:A213"/>
     <mergeCell ref="C197:C205"/>
     <mergeCell ref="B197:B205"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="C177:C187"/>
-    <mergeCell ref="C188:C196"/>
-    <mergeCell ref="C161:C169"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="B161:B169"/>
-    <mergeCell ref="A222:A231"/>
-    <mergeCell ref="B222:B231"/>
-    <mergeCell ref="C222:C231"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="C206:C213"/>
-    <mergeCell ref="C17:C30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A4:A52"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="C87:C97"/>
-    <mergeCell ref="B98:B108"/>
-    <mergeCell ref="C31:C46"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C53:C69"/>
-    <mergeCell ref="B53:B69"/>
-    <mergeCell ref="B122:B132"/>
-    <mergeCell ref="B133:B145"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="A177:A196"/>
-    <mergeCell ref="B170:B176"/>
-    <mergeCell ref="B177:B187"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
